--- a/PPS.xlsx
+++ b/PPS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6a0ae87b33583073/Desktop/Desktop/programavimas/ADS/3emkl9266/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kanstantinaspiatrashka/Code/ads3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="8_{276B0BC6-9103-4D01-B85A-346B13EC2661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF8514E8-49AC-480F-839B-4393CF949AFB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C5FC61-7054-3241-9DAD-230D42B44148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PPS" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -53,15 +53,16 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Planavimo </t>
         </r>
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -71,7 +72,7 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -80,7 +81,7 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -90,8 +91,9 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -99,8 +101,9 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -112,7 +115,7 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -122,15 +125,16 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Planavimo </t>
         </r>
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -140,7 +144,7 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -149,7 +153,7 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -159,8 +163,9 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -168,8 +173,9 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -181,7 +187,7 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -191,15 +197,16 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Planavimo </t>
         </r>
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -209,7 +216,7 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -218,7 +225,7 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -228,8 +235,9 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -237,8 +245,9 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -250,7 +259,7 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -260,15 +269,16 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Planavimo </t>
         </r>
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -278,7 +288,7 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -287,7 +297,7 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -297,8 +307,9 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -306,8 +317,9 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -319,7 +331,7 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -329,15 +341,16 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Planavimo </t>
         </r>
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -347,8 +360,9 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -356,8 +370,9 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -369,7 +384,7 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -379,15 +394,16 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Planavimo </t>
         </r>
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -397,8 +413,9 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -406,8 +423,9 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -419,7 +437,7 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -429,15 +447,16 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Planavimo </t>
         </r>
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -447,8 +466,9 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -456,8 +476,9 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -469,7 +490,7 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -479,15 +500,16 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Planavimo </t>
         </r>
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -497,8 +519,9 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -506,8 +529,9 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -519,7 +543,7 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -529,15 +553,16 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Planavimo </t>
         </r>
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -547,8 +572,9 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -556,8 +582,9 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -569,7 +596,7 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -579,15 +606,16 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Planavimo </t>
         </r>
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -597,8 +625,9 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -606,8 +635,9 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -619,7 +649,7 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -630,7 +660,7 @@
             <b/>
             <i/>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -639,7 +669,7 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -649,7 +679,7 @@
           <rPr>
             <i/>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -658,19 +688,11 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>reikšme</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">reikšme
 </t>
         </r>
       </text>
@@ -787,23 +809,24 @@
     <t>Peržiūra</t>
   </si>
   <si>
-    <t>Emilis Kleinas</t>
-  </si>
-  <si>
     <t>3 lab. Darbas</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>Įmonė aktyviai prekiauja grūdais. Patikrinti koks algoritmas ir duomenų struktūra skaiciujant grudų kainą neštų daugiausią pelno</t>
+    <t>Kanstantinas Piatrashka</t>
+  </si>
+  <si>
+    <t>Pamodeliuoti, kokia verslo logika servisui naudingiausia: turėti kuo daugiau
+bendradarbiavimo sutarčių, ar dirbti visai be jų.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -827,39 +850,26 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
-      <color indexed="81"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="8"/>
-      <color indexed="81"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -867,7 +877,14 @@
       <b/>
       <i/>
       <sz val="8"/>
-      <color indexed="81"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -982,9 +999,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -1024,7 +1038,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1041,15 +1055,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1060,9 +1067,19 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Įprastas" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1083,10 +1100,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1473,734 +1486,748 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.77734375" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="2.77734375" customWidth="1"/>
+    <col min="7" max="7" width="2.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="3"/>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="3">
-        <v>2</v>
+      <c r="C2" s="34">
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="23">
-        <v>45003</v>
+      <c r="E2" s="22">
+        <v>45023</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="C3" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="3"/>
       <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="6" t="s">
+      <c r="F4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3"/>
+      <c r="B5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="13" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8" t="s">
+      <c r="F7" s="17"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="17">
+        <v>1.23</v>
+      </c>
+      <c r="D8" s="16">
         <f>D22/D11</f>
-        <v>1.3514492753623188</v>
-      </c>
-      <c r="E8" s="17" t="e">
+        <v>0.74637681159420288</v>
+      </c>
+      <c r="E8" s="16" t="e">
         <f>E22/E11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8" t="s">
+      <c r="F8" s="18"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="16">
         <f>60/C8</f>
-        <v>60</v>
-      </c>
-      <c r="D9" s="17">
+        <v>48.780487804878049</v>
+      </c>
+      <c r="D9" s="16">
         <f>60/D8</f>
-        <v>44.396782841823054</v>
-      </c>
-      <c r="E9" s="17" t="e">
+        <v>80.388349514563103</v>
+      </c>
+      <c r="E9" s="16" t="e">
         <f>60/E8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
+      <c r="F9" s="18"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8" t="s">
+      <c r="B10" s="33"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="1">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="D11" s="1">
         <v>276</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8" t="s">
+      <c r="F11" s="18"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="1">
-        <v>330</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="1">
-        <v>220</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8" t="s">
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="1">
         <v>30</v>
       </c>
       <c r="D15" s="1">
+        <v>32</v>
+      </c>
+      <c r="E15" s="1">
+        <v>108</v>
+      </c>
+      <c r="F15" s="14">
+        <f>E15/E22</f>
+        <v>0.16438356164383561</v>
+      </c>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="14">
+        <f>E16/E22</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>120</v>
+      </c>
+      <c r="D17" s="1">
+        <v>138</v>
+      </c>
+      <c r="E17" s="1">
+        <v>426</v>
+      </c>
+      <c r="F17" s="14">
+        <f>E17/E22</f>
+        <v>0.64840182648401823</v>
+      </c>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="6"/>
+      <c r="B18" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>8</v>
+      </c>
+      <c r="F18" s="14">
+        <f>E18/E22</f>
+        <v>1.2176560121765601E-2</v>
+      </c>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="14">
+        <f>E19/E22</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1">
+        <v>22</v>
+      </c>
+      <c r="D20" s="1">
+        <v>36</v>
+      </c>
+      <c r="E20" s="1">
+        <v>115</v>
+      </c>
+      <c r="F20" s="14">
+        <f>E20/E22</f>
+        <v>0.17503805175038051</v>
+      </c>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="14">
+        <f>E21/E22</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="6"/>
+      <c r="B22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="13">
+        <f>SUM(C15:C21)</f>
+        <v>172</v>
+      </c>
+      <c r="D22" s="13">
+        <f>SUM(D15:D21)</f>
+        <v>206</v>
+      </c>
+      <c r="E22" s="13">
+        <f>SUM(E15:E21)</f>
+        <v>657</v>
+      </c>
+      <c r="F22" s="14">
+        <f>SUM(F15:F21)</f>
+        <v>1</v>
+      </c>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="6"/>
+      <c r="B23" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="15" t="e">
-        <f>E15/E22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="1">
-        <v>15</v>
-      </c>
-      <c r="D16" s="1">
-        <v>16</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="15" t="e">
-        <f>E16/E22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17">
-        <v>180</v>
-      </c>
-      <c r="D17" s="1">
-        <v>250</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="15" t="e">
-        <f>E17/E22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="15" t="e">
-        <f>E18/E22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="15" t="e">
-        <f>E19/E22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="1">
-        <v>120</v>
-      </c>
-      <c r="D20" s="1">
-        <v>76</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="15" t="e">
-        <f>E20/E22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="15" t="e">
-        <f>E21/E22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="14">
-        <f>SUM(C15:C21)</f>
-        <v>345</v>
-      </c>
-      <c r="D22" s="14">
-        <f>SUM(D15:D21)</f>
-        <v>373</v>
-      </c>
-      <c r="E22" s="14">
-        <f>SUM(E15:E21)</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="15" t="e">
-        <f>SUM(F15:F21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="14">
+      <c r="C23" s="13">
         <f>ROUND(C11*C8,0)</f>
-        <v>250</v>
-      </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="6"/>
+      <c r="B24" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="13">
         <f>ROUND(C12*C8,0)</f>
-        <v>330</v>
-      </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="6"/>
+      <c r="B25" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="13">
         <f>ROUND(C13*C8,0)</f>
-        <v>220</v>
-      </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="22" t="s">
+      <c r="B26" s="27"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="22" t="s">
+      <c r="F26" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="10" t="s">
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="6"/>
+      <c r="B27" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="15" t="e">
+      <c r="F27" s="14" t="e">
         <f>E27/E33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="10" t="s">
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="6"/>
+      <c r="B28" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="15" t="e">
+      <c r="F28" s="14" t="e">
         <f>E28/E33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="10" t="s">
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="6"/>
+      <c r="B29" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D29" s="1">
         <v>2</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="15" t="e">
+      <c r="F29" s="14" t="e">
         <f>E29/E33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="10" t="s">
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="6"/>
+      <c r="B30" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
       </c>
       <c r="E30" s="1"/>
-      <c r="F30" s="15" t="e">
+      <c r="F30" s="14" t="e">
         <f>E30/E33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="10" t="s">
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="6"/>
+      <c r="B31" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
       </c>
       <c r="E31" s="1"/>
-      <c r="F31" s="15" t="e">
+      <c r="F31" s="14" t="e">
         <f>E31/E33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="10" t="s">
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="6"/>
+      <c r="B32" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
       </c>
       <c r="E32" s="1"/>
-      <c r="F32" s="15" t="e">
+      <c r="F32" s="14" t="e">
         <f>E32/E33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="9" t="s">
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="6"/>
+      <c r="B33" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="13">
         <f>SUM(D27:D32)</f>
         <v>2</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="13">
         <f>SUM(E27:E32)</f>
         <v>0</v>
       </c>
-      <c r="F33" s="15" t="e">
+      <c r="F33" s="14" t="e">
         <f>SUM(F27:F32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="27" t="s">
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="12" t="s">
+      <c r="B34" s="27"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F34" s="12" t="s">
+      <c r="F34" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="8" t="s">
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="6"/>
+      <c r="B35" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
       </c>
       <c r="E35" s="1"/>
-      <c r="F35" s="15" t="e">
+      <c r="F35" s="14" t="e">
         <f>E35/E41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="8" t="s">
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="6"/>
+      <c r="B36" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
       </c>
       <c r="E36" s="1"/>
-      <c r="F36" s="15" t="e">
+      <c r="F36" s="14" t="e">
         <f>E36/E41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="8" t="s">
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="6"/>
+      <c r="B37" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="1">
         <v>1</v>
       </c>
       <c r="E37" s="1"/>
-      <c r="F37" s="15" t="e">
+      <c r="F37" s="14" t="e">
         <f>E37/E41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G37" s="4"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="10" t="s">
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="6"/>
+      <c r="B38" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
       </c>
       <c r="E38" s="1"/>
-      <c r="F38" s="15" t="e">
+      <c r="F38" s="14" t="e">
         <f>E38/E41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G38" s="4"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="8" t="s">
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="6"/>
+      <c r="B39" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
       </c>
       <c r="E39" s="1"/>
-      <c r="F39" s="15" t="e">
+      <c r="F39" s="14" t="e">
         <f>E39/E41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G39" s="4"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="8" t="s">
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="6"/>
+      <c r="B40" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D40" s="1">
         <v>1</v>
       </c>
       <c r="E40" s="1"/>
-      <c r="F40" s="15" t="e">
+      <c r="F40" s="14" t="e">
         <f>E40/E41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G40" s="4"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="9" t="s">
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="6"/>
+      <c r="B41" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D41" s="14">
+      <c r="D41" s="13">
         <f>SUM(D35:D40)</f>
         <v>2</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E41" s="13">
         <f>SUM(E35:E40)</f>
         <v>0</v>
       </c>
-      <c r="F41" s="15" t="e">
+      <c r="F41" s="14" t="e">
         <f>SUM(F35:F40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G41" s="4"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="11" t="s">
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="3"/>
+      <c r="B42" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="4"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/PPS.xlsx
+++ b/PPS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kanstantinaspiatrashka/Code/ads3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C5FC61-7054-3241-9DAD-230D42B44148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C9414C-0A3C-854B-956C-9636D43D1ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -818,8 +818,7 @@
     <t>Kanstantinas Piatrashka</t>
   </si>
   <si>
-    <t>Pamodeliuoti, kokia verslo logika servisui naudingiausia: turėti kuo daugiau
-bendradarbiavimo sutarčių, ar dirbti visai be jų.</t>
+    <t>Pamodeliuoti, kokia verslo logika servisui naudingiausia: turėti kuo daugiau bendradarbiavimo sutarčių, ar dirbti visai be jų.</t>
   </si>
 </sst>
 </file>
@@ -1048,6 +1047,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1055,8 +1057,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1067,16 +1076,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1487,7 +1486,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="C5" sqref="C5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1502,22 +1501,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="34">
+      <c r="C2" s="23">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1534,12 +1533,12 @@
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31"/>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -1564,12 +1563,12 @@
       <c r="B5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="31"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="34"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1582,10 +1581,10 @@
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="25"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="12" t="s">
         <v>10</v>
       </c>
@@ -1638,13 +1637,13 @@
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="31"/>
       <c r="F10" s="17"/>
       <c r="G10" s="3"/>
     </row>
@@ -1690,10 +1689,10 @@
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="25"/>
+      <c r="A14" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="26"/>
       <c r="C14" s="12" t="s">
         <v>10</v>
       </c>
@@ -1914,10 +1913,10 @@
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="27"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="16"/>
       <c r="D26" s="21" t="s">
         <v>11</v>
@@ -2061,10 +2060,10 @@
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="27"/>
+      <c r="B34" s="28"/>
       <c r="C34" s="3"/>
       <c r="D34" s="11" t="s">
         <v>11</v>
